--- a/CPI and Inflation Results/CPI-General-Inflation.xlsx
+++ b/CPI and Inflation Results/CPI-General-Inflation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/CypERN/04.Billion Prices Cyprus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/untitled folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2F564-04F8-A840-870E-A7FA74289AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B2843-1772-2943-9BEE-2D61485B34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7735964198250711</v>
+        <v>0.77868337379253394</v>
       </c>
       <c r="C3">
-        <v>-5.2142141463670311E-4</v>
+        <v>6.0508705329897026E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -453,10 +456,21 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.77359680119700558</v>
+        <v>0.77868384931815227</v>
       </c>
       <c r="C4">
-        <v>4.9298565079088262E-7</v>
+        <v>6.1067904405150102E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.77787814345819684</v>
+      </c>
+      <c r="C5">
+        <v>-1.034702158855535E-3</v>
       </c>
     </row>
   </sheetData>

--- a/CPI and Inflation Results/CPI-General-Inflation.xlsx
+++ b/CPI and Inflation Results/CPI-General-Inflation.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendeas/Desktop/untitled folder/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B2843-1772-2943-9BEE-2D61485B34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,13 +35,16 @@
   </si>
   <si>
     <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +107,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +185,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,21 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,45 +412,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.77399999999999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7739999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.77868337379253394</v>
+        <v>0.7786833737925339</v>
       </c>
       <c r="C3">
-        <v>6.0508705329897026E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.006050870532989703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.77868384931815227</v>
+        <v>0.7786838493181523</v>
       </c>
       <c r="C4">
-        <v>6.1067904405150102E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.10679044051501E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.77787814345819684</v>
+        <v>0.7778781434581968</v>
       </c>
       <c r="C5">
-        <v>-1.034702158855535E-3</v>
+        <v>-0.001034702158855535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.7776224346346019</v>
+      </c>
+      <c r="C6">
+        <v>-0.0003287260681449876</v>
       </c>
     </row>
   </sheetData>
